--- a/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>Datetime</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>SOPHY_20220508_084709_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -642,25 +645,25 @@
         <v>0.3507995501699038</v>
       </c>
       <c r="J2">
-        <v>0.0240988967296453</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12346174.11502765</v>
+        <v>1234617.411502765</v>
       </c>
       <c r="L2">
-        <v>70.9153239742151</v>
+        <v>60.9153239742151</v>
       </c>
       <c r="M2">
-        <v>35194384.11208905</v>
+        <v>3519438.411208905</v>
       </c>
       <c r="N2">
-        <v>75.46473369622757</v>
-      </c>
-      <c r="O2">
-        <v>1460414744.580179</v>
-      </c>
-      <c r="P2">
-        <v>91.64476209006179</v>
+        <v>65.46473369622757</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -692,25 +695,25 @@
         <v>0.3135768689473347</v>
       </c>
       <c r="J3">
-        <v>0.4208673558279326</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>412408383.9044688</v>
+        <v>41240838.39044689</v>
       </c>
       <c r="L3">
-        <v>86.15327485531066</v>
+        <v>76.15327485531066</v>
       </c>
       <c r="M3">
-        <v>1315174761.73835</v>
+        <v>131517476.173835</v>
       </c>
       <c r="N3">
-        <v>91.1898346614569</v>
-      </c>
-      <c r="O3">
-        <v>3124915115.241313</v>
-      </c>
-      <c r="P3">
-        <v>94.94838224725538</v>
+        <v>81.1898346614569</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -742,25 +745,25 @@
         <v>0.4106493198697091</v>
       </c>
       <c r="J4">
-        <v>0.4208673558279326</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>154104892.5518477</v>
+        <v>15410489.25518477</v>
       </c>
       <c r="L4">
-        <v>81.87816427002261</v>
+        <v>71.87816427002262</v>
       </c>
       <c r="M4">
-        <v>375271271.8500109</v>
+        <v>37527127.1850011</v>
       </c>
       <c r="N4">
-        <v>85.74345319130484</v>
-      </c>
-      <c r="O4">
-        <v>891661628.4286891</v>
-      </c>
-      <c r="P4">
-        <v>89.50200077710332</v>
+        <v>75.74345319130484</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -792,25 +795,25 @@
         <v>0.4162124406110167</v>
       </c>
       <c r="J5">
-        <v>0.5598107103525406</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>48157006.45830388</v>
+        <v>4815700.645830388</v>
       </c>
       <c r="L5">
-        <v>76.82659482422382</v>
+        <v>66.82659482422382</v>
       </c>
       <c r="M5">
-        <v>115702948.2050259</v>
+        <v>11570294.82050259</v>
       </c>
       <c r="N5">
-        <v>80.63344425268616</v>
-      </c>
-      <c r="O5">
-        <v>206682269.6767662</v>
-      </c>
-      <c r="P5">
-        <v>83.15303222095042</v>
+        <v>70.63344425268616</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -842,25 +845,25 @@
         <v>0.4276885156160934</v>
       </c>
       <c r="J6">
-        <v>0.5804996931345077</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>309896832.535609</v>
+        <v>30989683.2535609</v>
       </c>
       <c r="L6">
-        <v>84.91217137325646</v>
+        <v>74.91217137325644</v>
       </c>
       <c r="M6">
-        <v>724585349.4316927</v>
+        <v>72458534.94316928</v>
       </c>
       <c r="N6">
-        <v>88.60089548680996</v>
-      </c>
-      <c r="O6">
-        <v>1248209702.780668</v>
-      </c>
-      <c r="P6">
-        <v>90.96287554184397</v>
+        <v>78.60089548680996</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -892,25 +895,25 @@
         <v>0.438685645030669</v>
       </c>
       <c r="J7">
-        <v>0.5987897429788055</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>60193091.17927583</v>
+        <v>6019309.117927583</v>
       </c>
       <c r="L7">
-        <v>77.79546646824214</v>
+        <v>67.79546646824214</v>
       </c>
       <c r="M7">
-        <v>137212356.6410924</v>
+        <v>13721235.66410924</v>
       </c>
       <c r="N7">
-        <v>81.37393223465469</v>
-      </c>
-      <c r="O7">
-        <v>229149477.3415802</v>
-      </c>
-      <c r="P7">
-        <v>83.60118871015993</v>
+        <v>71.37393223465469</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -942,25 +945,25 @@
         <v>0.481440974260076</v>
       </c>
       <c r="J8">
-        <v>0.257704441908068</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>126076961.5599591</v>
+        <v>12607696.15599591</v>
       </c>
       <c r="L8">
-        <v>81.00635733825334</v>
+        <v>71.00635733825334</v>
       </c>
       <c r="M8">
-        <v>261874182.5074736</v>
+        <v>26187418.25074737</v>
       </c>
       <c r="N8">
-        <v>84.18092684575583</v>
-      </c>
-      <c r="O8">
-        <v>1016180321.024087</v>
-      </c>
-      <c r="P8">
-        <v>90.06970780267838</v>
+        <v>74.18092684575583</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -992,25 +995,25 @@
         <v>0.4641818820139618</v>
       </c>
       <c r="J9">
-        <v>0.1860022232885806</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20954646.26874973</v>
+        <v>2095464.626874973</v>
       </c>
       <c r="L9">
-        <v>73.21280333992259</v>
+        <v>63.21280333992259</v>
       </c>
       <c r="M9">
-        <v>45143180.03501794</v>
+        <v>4514318.003501794</v>
       </c>
       <c r="N9">
-        <v>76.54592148960081</v>
-      </c>
-      <c r="O9">
-        <v>242702367.9441656</v>
-      </c>
-      <c r="P9">
-        <v>83.85074013579845</v>
+        <v>66.54592148960081</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1042,25 +1045,25 @@
         <v>0.4591902031795372</v>
       </c>
       <c r="J10">
-        <v>0.895236518752482</v>
+        <v>1.663684601928417E-158</v>
       </c>
       <c r="K10">
-        <v>87827972.01148495</v>
+        <v>8782797.201148495</v>
       </c>
       <c r="L10">
-        <v>79.43632854807352</v>
+        <v>69.43632854807352</v>
       </c>
       <c r="M10">
-        <v>191267085.8466582</v>
+        <v>19126708.58466582</v>
       </c>
       <c r="N10">
-        <v>82.8164024098898</v>
+        <v>72.8164024098898</v>
       </c>
       <c r="O10">
-        <v>213649780.6336029</v>
+        <v>1.149659530568209E+165</v>
       </c>
       <c r="P10">
-        <v>83.29702451238568</v>
+        <v>1650.605692439291</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1092,25 +1095,25 @@
         <v>0.5354064896913701</v>
       </c>
       <c r="J11">
-        <v>0.133575840432782</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>51342005.94268009</v>
+        <v>5134200.594268009</v>
       </c>
       <c r="L11">
-        <v>77.10472832641197</v>
+        <v>67.10472832641197</v>
       </c>
       <c r="M11">
-        <v>95893506.95445566</v>
+        <v>9589350.695445567</v>
       </c>
       <c r="N11">
-        <v>79.81789201651191</v>
-      </c>
-      <c r="O11">
-        <v>717895591.3267205</v>
-      </c>
-      <c r="P11">
-        <v>88.56061286292626</v>
+        <v>69.81789201651191</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1142,25 +1145,25 @@
         <v>0.589011336541935</v>
       </c>
       <c r="J12">
-        <v>0.07239397304789182</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6728530.557310058</v>
+        <v>672853.0557310059</v>
       </c>
       <c r="L12">
-        <v>68.27920229078114</v>
+        <v>58.27920229078114</v>
       </c>
       <c r="M12">
-        <v>11423431.33294008</v>
+        <v>1142343.133294009</v>
       </c>
       <c r="N12">
-        <v>70.57796575462105</v>
-      </c>
-      <c r="O12">
-        <v>157795336.4347469</v>
-      </c>
-      <c r="P12">
-        <v>81.98094163698596</v>
+        <v>60.57796575462105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1192,25 +1195,25 @@
         <v>0.5049320557646849</v>
       </c>
       <c r="J13">
-        <v>0.6125380933390212</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>66811419.01730145</v>
+        <v>6681141.901730145</v>
       </c>
       <c r="L13">
-        <v>78.24850695894385</v>
+        <v>68.24850695894385</v>
       </c>
       <c r="M13">
-        <v>132317642.0560587</v>
+        <v>13231764.20560587</v>
       </c>
       <c r="N13">
-        <v>81.21617753006788</v>
-      </c>
-      <c r="O13">
-        <v>216015368.6683857</v>
-      </c>
-      <c r="P13">
-        <v>83.34484650643685</v>
+        <v>71.2161775300679</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1242,25 +1245,25 @@
         <v>0.4140082389919561</v>
       </c>
       <c r="J14">
-        <v>0.002336183282694769</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4946757.71408966</v>
+        <v>494675.771408966</v>
       </c>
       <c r="L14">
-        <v>66.94320639692923</v>
+        <v>56.94320639692923</v>
       </c>
       <c r="M14">
-        <v>11948452.34513744</v>
+        <v>1194845.234513744</v>
       </c>
       <c r="N14">
-        <v>70.77311655786663</v>
-      </c>
-      <c r="O14">
-        <v>5114518382.887749</v>
-      </c>
-      <c r="P14">
-        <v>97.0880474391288</v>
+        <v>60.77311655786663</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1292,25 +1295,25 @@
         <v>0.4415750196521217</v>
       </c>
       <c r="J15">
-        <v>0.4778443140918441</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>174491465.1868437</v>
+        <v>17449146.51868437</v>
       </c>
       <c r="L15">
-        <v>82.41774189387426</v>
+        <v>72.41774189387425</v>
       </c>
       <c r="M15">
-        <v>395157011.6541245</v>
+        <v>39515701.16541246</v>
       </c>
       <c r="N15">
-        <v>85.96769692451831</v>
-      </c>
-      <c r="O15">
-        <v>826957651.2700187</v>
-      </c>
-      <c r="P15">
-        <v>89.17483269781491</v>
+        <v>75.96769692451832</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1342,25 +1345,25 @@
         <v>0.4699632194131663</v>
       </c>
       <c r="J16">
-        <v>0.1910987516192786</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23962955.28180778</v>
+        <v>2396295.528180778</v>
       </c>
       <c r="L16">
-        <v>73.79540377299722</v>
+        <v>63.79540377299723</v>
       </c>
       <c r="M16">
-        <v>50989001.46213537</v>
+        <v>5098900.146213537</v>
       </c>
       <c r="N16">
-        <v>77.07476507089441</v>
-      </c>
-      <c r="O16">
-        <v>266820170.3573632</v>
-      </c>
-      <c r="P16">
-        <v>84.26218657117786</v>
+        <v>67.07476507089441</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1392,25 +1395,25 @@
         <v>0.3377172750963702</v>
       </c>
       <c r="J17">
-        <v>0.7186515668178153</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>7557512.655960068</v>
+        <v>755751.2655960069</v>
       </c>
       <c r="L17">
-        <v>68.78378883128588</v>
+        <v>58.78378883128587</v>
       </c>
       <c r="M17">
-        <v>22378223.48235954</v>
+        <v>2237822.348235954</v>
       </c>
       <c r="N17">
-        <v>73.49825606659184</v>
-      </c>
-      <c r="O17">
-        <v>31139184.15491693</v>
-      </c>
-      <c r="P17">
-        <v>74.93307229887235</v>
+        <v>63.49825606659184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1442,25 +1445,25 @@
         <v>0.3699879098573806</v>
       </c>
       <c r="J18">
-        <v>0.0001400767669554552</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4047536.043838384</v>
+        <v>404753.6043838384</v>
       </c>
       <c r="L18">
-        <v>66.07190724891852</v>
+        <v>56.07190724891851</v>
       </c>
       <c r="M18">
-        <v>10939644.069447</v>
+        <v>1093964.4069447</v>
       </c>
       <c r="N18">
-        <v>70.39003192089756</v>
-      </c>
-      <c r="O18">
-        <v>78097491163.0123</v>
-      </c>
-      <c r="P18">
-        <v>108.9263708264093</v>
+        <v>60.39003192089756</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1492,25 +1495,25 @@
         <v>0.4303214169647421</v>
       </c>
       <c r="J19">
-        <v>0.5906017391226955</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>383252509.5914959</v>
+        <v>38325250.95914959</v>
       </c>
       <c r="L19">
-        <v>85.83485007357254</v>
+        <v>75.83485007357255</v>
       </c>
       <c r="M19">
-        <v>890619184.8287609</v>
+        <v>89061918.48287609</v>
       </c>
       <c r="N19">
-        <v>89.49692046033839</v>
-      </c>
-      <c r="O19">
-        <v>1507986051.906525</v>
-      </c>
-      <c r="P19">
-        <v>91.78397324552293</v>
+        <v>79.49692046033839</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1542,25 +1545,25 @@
         <v>0.4084843695689931</v>
       </c>
       <c r="J20">
-        <v>0.6620562491881885</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>8053215.020579135</v>
+        <v>805321.5020579136</v>
       </c>
       <c r="L20">
-        <v>69.05969294895773</v>
+        <v>59.05969294895775</v>
       </c>
       <c r="M20">
-        <v>19714867.00721591</v>
+        <v>1971486.700721591</v>
       </c>
       <c r="N20">
-        <v>72.94793851750248</v>
-      </c>
-      <c r="O20">
-        <v>29778235.6580581</v>
-      </c>
-      <c r="P20">
-        <v>74.73898962500481</v>
+        <v>62.94793851750248</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1592,25 +1595,25 @@
         <v>0.4495288174343351</v>
       </c>
       <c r="J21">
-        <v>0.1698587085538143</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>670398417.269182</v>
+        <v>67039841.72691821</v>
       </c>
       <c r="L21">
-        <v>88.26332980305884</v>
+        <v>78.26332980305884</v>
       </c>
       <c r="M21">
-        <v>1491335797.102953</v>
+        <v>149133579.7102953</v>
       </c>
       <c r="N21">
-        <v>91.73575442520162</v>
-      </c>
-      <c r="O21">
-        <v>8779860684.213734</v>
-      </c>
-      <c r="P21">
-        <v>99.43487624726461</v>
+        <v>81.73575442520162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1642,25 +1645,25 @@
         <v>0.4495288174343351</v>
       </c>
       <c r="J22">
-        <v>0.3706787312442482</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>586998518.2404219</v>
+        <v>58699851.82404219</v>
       </c>
       <c r="L22">
-        <v>87.68637004960016</v>
+        <v>77.68637004960016</v>
       </c>
       <c r="M22">
-        <v>1305808427.567978</v>
+        <v>130580842.7567978</v>
       </c>
       <c r="N22">
-        <v>91.15879467174294</v>
-      </c>
-      <c r="O22">
-        <v>3522749803.272508</v>
-      </c>
-      <c r="P22">
-        <v>95.46881799321832</v>
+        <v>81.15879467174294</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1692,25 +1695,25 @@
         <v>0.4250552877397811</v>
       </c>
       <c r="J23">
-        <v>0.6107799241178704</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>46119089.32742533</v>
+        <v>4611908.932742533</v>
       </c>
       <c r="L23">
-        <v>76.63880723081058</v>
+        <v>66.63880723081058</v>
       </c>
       <c r="M23">
-        <v>108501389.4843238</v>
+        <v>10850138.94843238</v>
       </c>
       <c r="N23">
-        <v>80.35435299857457</v>
-      </c>
-      <c r="O23">
-        <v>177644001.054928</v>
-      </c>
-      <c r="P23">
-        <v>82.49550546175297</v>
+        <v>70.35435299857457</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1742,25 +1745,25 @@
         <v>0.4703401296918707</v>
       </c>
       <c r="J24">
-        <v>0.001245772761538797</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>9312560.966864247</v>
+        <v>931256.0966864247</v>
       </c>
       <c r="L24">
-        <v>69.69069128976328</v>
+        <v>59.69069128976328</v>
       </c>
       <c r="M24">
-        <v>19799630.90320423</v>
+        <v>1979963.090320423</v>
       </c>
       <c r="N24">
-        <v>72.96657094393058</v>
-      </c>
-      <c r="O24">
-        <v>15893453055.39305</v>
-      </c>
-      <c r="P24">
-        <v>102.0121826347439</v>
+        <v>62.96657094393058</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1792,25 +1795,25 @@
         <v>0.4165728119352762</v>
       </c>
       <c r="J25">
-        <v>0.05384564944359212</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>70661907.29278962</v>
+        <v>7066190.729278963</v>
       </c>
       <c r="L25">
-        <v>78.49185355651258</v>
+        <v>68.49185355651258</v>
       </c>
       <c r="M25">
-        <v>169626786.1661805</v>
+        <v>16962678.61661805</v>
       </c>
       <c r="N25">
-        <v>82.29494433802836</v>
-      </c>
-      <c r="O25">
-        <v>3150241252.896001</v>
-      </c>
-      <c r="P25">
-        <v>94.98343814357671</v>
+        <v>72.29494433802837</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1842,25 +1845,25 @@
         <v>0.3997359652459576</v>
       </c>
       <c r="J26">
-        <v>0.2073981916912739</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>173504298.1103103</v>
+        <v>17350429.81103103</v>
       </c>
       <c r="L26">
-        <v>82.39310237757842</v>
+        <v>72.3931023775784</v>
       </c>
       <c r="M26">
-        <v>434047254.1757734</v>
+        <v>43404725.41757735</v>
       </c>
       <c r="N26">
-        <v>86.37537013177557</v>
-      </c>
-      <c r="O26">
-        <v>2092820822.767258</v>
-      </c>
-      <c r="P26">
-        <v>93.20732047729766</v>
+        <v>76.37537013177558</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1892,25 +1895,25 @@
         <v>0.3232290870750321</v>
       </c>
       <c r="J27">
-        <v>0.2073981916912739</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>85282665.75643529</v>
+        <v>8528266.57564353</v>
       </c>
       <c r="L27">
-        <v>79.30860767025084</v>
+        <v>69.30860767025084</v>
       </c>
       <c r="M27">
-        <v>263845888.772499</v>
+        <v>26384588.8772499</v>
       </c>
       <c r="N27">
-        <v>84.21350331420749</v>
-      </c>
-      <c r="O27">
-        <v>1272170632.833922</v>
-      </c>
-      <c r="P27">
-        <v>91.04545365972959</v>
+        <v>74.21350331420749</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1942,25 +1945,25 @@
         <v>6.553718570611091E-05</v>
       </c>
       <c r="J28">
-        <v>1.730799590730642E-06</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>7812950.317655999</v>
+        <v>781295.0317656</v>
       </c>
       <c r="L28">
-        <v>68.92815062651256</v>
+        <v>58.92815062651258</v>
       </c>
       <c r="M28">
-        <v>119214003980.7583</v>
+        <v>11921400398.07583</v>
       </c>
       <c r="N28">
-        <v>110.7632727465202</v>
-      </c>
-      <c r="O28">
-        <v>6.88779940896757E+16</v>
-      </c>
-      <c r="P28">
-        <v>168.3808049081972</v>
+        <v>100.7632727465202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1992,25 +1995,25 @@
         <v>0.4845577789851628</v>
       </c>
       <c r="J29">
-        <v>0.2315466477020072</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>211632574.4456025</v>
+        <v>21163257.44456025</v>
       </c>
       <c r="L29">
-        <v>83.25582515032222</v>
+        <v>73.25582515032222</v>
       </c>
       <c r="M29">
-        <v>436754054.1580754</v>
+        <v>43675405.41580754</v>
       </c>
       <c r="N29">
-        <v>86.40236945000839</v>
-      </c>
-      <c r="O29">
-        <v>1886246501.483206</v>
-      </c>
-      <c r="P29">
-        <v>92.75598447276451</v>
+        <v>76.40236945000839</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2042,25 +2045,25 @@
         <v>0.7890782254352866</v>
       </c>
       <c r="J30">
-        <v>3.335292857899673E-20</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>32799313.85293643</v>
+        <v>3279931.385293643</v>
       </c>
       <c r="L30">
-        <v>75.15864758559229</v>
+        <v>65.15864758559229</v>
       </c>
       <c r="M30">
-        <v>41566618.86702429</v>
+        <v>4156661.88670243</v>
       </c>
       <c r="N30">
-        <v>76.18744699341089</v>
-      </c>
-      <c r="O30">
-        <v>1.246265939393398E+27</v>
-      </c>
-      <c r="P30">
-        <v>270.956107258604</v>
+        <v>66.18744699341089</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2092,25 +2095,25 @@
         <v>0.004808058802489822</v>
       </c>
       <c r="J31">
-        <v>1.932656663794663E-12</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2574830.857177734</v>
+        <v>257483.0857177735</v>
       </c>
       <c r="L31">
-        <v>64.10748705141457</v>
+        <v>54.10748705141457</v>
       </c>
       <c r="M31">
-        <v>535523994.8072962</v>
+        <v>53552399.48072962</v>
       </c>
       <c r="N31">
-        <v>87.28778934699044</v>
-      </c>
-      <c r="O31">
-        <v>2.77092152392875E+20</v>
-      </c>
-      <c r="P31">
-        <v>204.4262422617656</v>
+        <v>77.28778934699044</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2142,25 +2145,25 @@
         <v>0.850748131320455</v>
       </c>
       <c r="J32">
-        <v>1.684570111756896E-18</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>219725131.1813614</v>
+        <v>21972513.11813615</v>
       </c>
       <c r="L32">
-        <v>83.41879732428924</v>
+        <v>73.41879732428924</v>
       </c>
       <c r="M32">
-        <v>258272834.3350267</v>
+        <v>25827283.43350267</v>
       </c>
       <c r="N32">
-        <v>84.12078728593615</v>
-      </c>
-      <c r="O32">
-        <v>1.533167616666694E+26</v>
-      </c>
-      <c r="P32">
-        <v>261.8558963757717</v>
+        <v>74.12078728593616</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Datetime</t>
   </si>
@@ -61,6 +61,24 @@
     <t>C_after_wb [dB]</t>
   </si>
   <si>
+    <t>Theta X bar</t>
+  </si>
+  <si>
+    <t>Theta X</t>
+  </si>
+  <si>
+    <t>Theta Y bar</t>
+  </si>
+  <si>
+    <t>Theta Y</t>
+  </si>
+  <si>
+    <t>Wb x</t>
+  </si>
+  <si>
+    <t>Wb y</t>
+  </si>
+  <si>
     <t>2022-05-08  08:39:53</t>
   </si>
   <si>
@@ -203,9 +221,6 @@
   </si>
   <si>
     <t>SOPHY_20220508_084709_A28.2_S.hdf5</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -563,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,16 +630,34 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>28.2</v>
@@ -645,7 +678,7 @@
         <v>0.3507995501699038</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0240988967296453</v>
       </c>
       <c r="K2">
         <v>1234617.411502765</v>
@@ -659,22 +692,40 @@
       <c r="N2">
         <v>65.46473369622757</v>
       </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2">
+        <v>146041474.4580179</v>
+      </c>
+      <c r="P2">
+        <v>81.64476209006179</v>
+      </c>
+      <c r="Q2">
+        <v>28.2</v>
+      </c>
+      <c r="R2">
+        <v>30.27672698744499</v>
+      </c>
+      <c r="S2">
+        <v>18.14</v>
+      </c>
+      <c r="T2">
+        <v>18.28756182540367</v>
+      </c>
+      <c r="U2">
+        <v>0.02455416199293763</v>
+      </c>
+      <c r="V2">
+        <v>0.981458733414593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>29.2</v>
@@ -695,7 +746,7 @@
         <v>0.3135768689473347</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4208673558279326</v>
       </c>
       <c r="K3">
         <v>41240838.39044689</v>
@@ -709,22 +760,40 @@
       <c r="N3">
         <v>81.1898346614569</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3">
+        <v>312491511.5241312</v>
+      </c>
+      <c r="P3">
+        <v>84.94838224725538</v>
+      </c>
+      <c r="Q3">
+        <v>29.2</v>
+      </c>
+      <c r="R3">
+        <v>30.18585090080835</v>
+      </c>
+      <c r="S3">
+        <v>17.86</v>
+      </c>
+      <c r="T3">
+        <v>18.04708001163068</v>
+      </c>
+      <c r="U3">
+        <v>0.4337201505725254</v>
+      </c>
+      <c r="V3">
+        <v>0.970366157238425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>29.2</v>
@@ -745,7 +814,7 @@
         <v>0.4106493198697091</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4208673558279326</v>
       </c>
       <c r="K4">
         <v>15410489.25518477</v>
@@ -759,22 +828,40 @@
       <c r="N4">
         <v>75.74345319130484</v>
       </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4">
+        <v>89166162.84286892</v>
+      </c>
+      <c r="P4">
+        <v>79.50200077710332</v>
+      </c>
+      <c r="Q4">
+        <v>29.2</v>
+      </c>
+      <c r="R4">
+        <v>30.18585090080835</v>
+      </c>
+      <c r="S4">
+        <v>17.86</v>
+      </c>
+      <c r="T4">
+        <v>18.04708001163068</v>
+      </c>
+      <c r="U4">
+        <v>0.4337201505725254</v>
+      </c>
+      <c r="V4">
+        <v>0.970366157238425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>30.2</v>
@@ -795,7 +882,7 @@
         <v>0.4162124406110167</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5598107103525406</v>
       </c>
       <c r="K5">
         <v>4815700.645830388</v>
@@ -809,22 +896,40 @@
       <c r="N5">
         <v>70.63344425268616</v>
       </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5">
+        <v>20668226.96767663</v>
+      </c>
+      <c r="P5">
+        <v>73.15303222095044</v>
+      </c>
+      <c r="Q5">
+        <v>30.2</v>
+      </c>
+      <c r="R5">
+        <v>29.46211627977262</v>
+      </c>
+      <c r="S5">
+        <v>17.6</v>
+      </c>
+      <c r="T5">
+        <v>17.9612697993568</v>
+      </c>
+      <c r="U5">
+        <v>0.6262676925005607</v>
+      </c>
+      <c r="V5">
+        <v>0.8938840643644401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>29.2</v>
@@ -845,7 +950,7 @@
         <v>0.4276885156160934</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5804996931345077</v>
       </c>
       <c r="K6">
         <v>30989683.2535609</v>
@@ -859,22 +964,40 @@
       <c r="N6">
         <v>78.60089548680996</v>
       </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6">
+        <v>124820970.2780668</v>
+      </c>
+      <c r="P6">
+        <v>80.96287554184397</v>
+      </c>
+      <c r="Q6">
+        <v>29.2</v>
+      </c>
+      <c r="R6">
+        <v>29.94119474482136</v>
+      </c>
+      <c r="S6">
+        <v>17.87</v>
+      </c>
+      <c r="T6">
+        <v>18.15878370549187</v>
+      </c>
+      <c r="U6">
+        <v>0.6236371281707921</v>
+      </c>
+      <c r="V6">
+        <v>0.9308292706003376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>30.2</v>
@@ -895,7 +1018,7 @@
         <v>0.438685645030669</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5987897429788055</v>
       </c>
       <c r="K7">
         <v>6019309.117927583</v>
@@ -909,22 +1032,40 @@
       <c r="N7">
         <v>71.37393223465469</v>
       </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7">
+        <v>22914947.73415802</v>
+      </c>
+      <c r="P7">
+        <v>73.60118871015995</v>
+      </c>
+      <c r="Q7">
+        <v>30.2</v>
+      </c>
+      <c r="R7">
+        <v>29.42765049969539</v>
+      </c>
+      <c r="S7">
+        <v>18.2</v>
+      </c>
+      <c r="T7">
+        <v>18.18775330902537</v>
+      </c>
+      <c r="U7">
+        <v>0.5988669379241035</v>
+      </c>
+      <c r="V7">
+        <v>0.9998710983351902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>29.2</v>
@@ -945,7 +1086,7 @@
         <v>0.481440974260076</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.257704441908068</v>
       </c>
       <c r="K8">
         <v>12607696.15599591</v>
@@ -959,22 +1100,40 @@
       <c r="N8">
         <v>74.18092684575583</v>
       </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8">
+        <v>101618032.1024087</v>
+      </c>
+      <c r="P8">
+        <v>80.06970780267838</v>
+      </c>
+      <c r="Q8">
+        <v>29.2</v>
+      </c>
+      <c r="R8">
+        <v>30.45142700943828</v>
+      </c>
+      <c r="S8">
+        <v>18.1</v>
+      </c>
+      <c r="T8">
+        <v>18.20729852009052</v>
+      </c>
+      <c r="U8">
+        <v>0.2602672076775339</v>
+      </c>
+      <c r="V8">
+        <v>0.9901533282185856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>29.2</v>
@@ -995,7 +1154,7 @@
         <v>0.4641818820139618</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1860022232885806</v>
       </c>
       <c r="K9">
         <v>2095464.626874973</v>
@@ -1009,22 +1168,40 @@
       <c r="N9">
         <v>66.54592148960081</v>
       </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="O9">
+        <v>24270236.79441656</v>
+      </c>
+      <c r="P9">
+        <v>73.85074013579845</v>
+      </c>
+      <c r="Q9">
+        <v>29.2</v>
+      </c>
+      <c r="R9">
+        <v>30.28097514265765</v>
+      </c>
+      <c r="S9">
+        <v>17.3</v>
+      </c>
+      <c r="T9">
+        <v>18.18793384184438</v>
+      </c>
+      <c r="U9">
+        <v>0.3662865962445496</v>
+      </c>
+      <c r="V9">
+        <v>0.5078051591175263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>30.2</v>
@@ -1045,7 +1222,7 @@
         <v>0.4591902031795372</v>
       </c>
       <c r="J10">
-        <v>1.663684601928417E-158</v>
+        <v>0.895236518752482</v>
       </c>
       <c r="K10">
         <v>8782797.201148495</v>
@@ -1060,21 +1237,39 @@
         <v>72.8164024098898</v>
       </c>
       <c r="O10">
-        <v>1.149659530568209E+165</v>
+        <v>21364978.0633603</v>
       </c>
       <c r="P10">
-        <v>1650.605692439291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>73.29702451238566</v>
+      </c>
+      <c r="Q10">
+        <v>30.2</v>
+      </c>
+      <c r="R10">
+        <v>30.23256519040821</v>
+      </c>
+      <c r="S10">
+        <v>17.89</v>
+      </c>
+      <c r="T10">
+        <v>18.2473463073442</v>
+      </c>
+      <c r="U10">
+        <v>0.9990889161900465</v>
+      </c>
+      <c r="V10">
+        <v>0.8960528980407489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>28.2</v>
@@ -1095,7 +1290,7 @@
         <v>0.5354064896913701</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.133575840432782</v>
       </c>
       <c r="K11">
         <v>5134200.594268009</v>
@@ -1109,22 +1304,40 @@
       <c r="N11">
         <v>69.81789201651191</v>
       </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11">
+        <v>71789559.13267206</v>
+      </c>
+      <c r="P11">
+        <v>78.56061286292625</v>
+      </c>
+      <c r="Q11">
+        <v>28.2</v>
+      </c>
+      <c r="R11">
+        <v>29.7234862544702</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>18.14536868427597</v>
+      </c>
+      <c r="U11">
+        <v>0.1360241632404523</v>
+      </c>
+      <c r="V11">
+        <v>0.982000824343669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>28.2</v>
@@ -1145,7 +1358,7 @@
         <v>0.589011336541935</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07239397304789182</v>
       </c>
       <c r="K12">
         <v>672853.0557310059</v>
@@ -1159,22 +1372,40 @@
       <c r="N12">
         <v>60.57796575462105</v>
       </c>
-      <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12">
+        <v>15779533.64347469</v>
+      </c>
+      <c r="P12">
+        <v>71.98094163698596</v>
+      </c>
+      <c r="Q12">
+        <v>28.2</v>
+      </c>
+      <c r="R12">
+        <v>29.67968553047092</v>
+      </c>
+      <c r="S12">
+        <v>17.18</v>
+      </c>
+      <c r="T12">
+        <v>18.11023953365923</v>
+      </c>
+      <c r="U12">
+        <v>0.1523061937191856</v>
+      </c>
+      <c r="V12">
+        <v>0.4753186412193333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>30.2</v>
@@ -1195,7 +1426,7 @@
         <v>0.5049320557646849</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6125380933390212</v>
       </c>
       <c r="K13">
         <v>6681141.901730145</v>
@@ -1209,22 +1440,40 @@
       <c r="N13">
         <v>71.2161775300679</v>
       </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13">
+        <v>21601536.86683857</v>
+      </c>
+      <c r="P13">
+        <v>73.34484650643685</v>
+      </c>
+      <c r="Q13">
+        <v>30.2</v>
+      </c>
+      <c r="R13">
+        <v>29.90601688940651</v>
+      </c>
+      <c r="S13">
+        <v>18.01</v>
+      </c>
+      <c r="T13">
+        <v>17.31441647652212</v>
+      </c>
+      <c r="U13">
+        <v>0.9284082298494398</v>
+      </c>
+      <c r="V13">
+        <v>0.6597723648339013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>27.2</v>
@@ -1245,7 +1494,7 @@
         <v>0.4140082389919561</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.002336183282694769</v>
       </c>
       <c r="K14">
         <v>494675.771408966</v>
@@ -1259,22 +1508,40 @@
       <c r="N14">
         <v>60.77311655786663</v>
       </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14">
+        <v>511451838.2887748</v>
+      </c>
+      <c r="P14">
+        <v>87.0880474391288</v>
+      </c>
+      <c r="Q14">
+        <v>27.2</v>
+      </c>
+      <c r="R14">
+        <v>29.82056906759966</v>
+      </c>
+      <c r="S14">
+        <v>17.85</v>
+      </c>
+      <c r="T14">
+        <v>17.42304573538777</v>
+      </c>
+      <c r="U14">
+        <v>0.002732447845413723</v>
+      </c>
+      <c r="V14">
+        <v>0.8549781788574428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>28.2</v>
@@ -1295,7 +1562,7 @@
         <v>0.4415750196521217</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4778443140918441</v>
       </c>
       <c r="K15">
         <v>17449146.51868437</v>
@@ -1309,22 +1576,40 @@
       <c r="N15">
         <v>75.96769692451832</v>
       </c>
-      <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15">
+        <v>82695765.12700188</v>
+      </c>
+      <c r="P15">
+        <v>79.17483269781491</v>
+      </c>
+      <c r="Q15">
+        <v>28.2</v>
+      </c>
+      <c r="R15">
+        <v>29.09746022561623</v>
+      </c>
+      <c r="S15">
+        <v>17.9</v>
+      </c>
+      <c r="T15">
+        <v>17.66817054199732</v>
+      </c>
+      <c r="U15">
+        <v>0.5004356644552511</v>
+      </c>
+      <c r="V15">
+        <v>0.9548566339931053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>28.2</v>
@@ -1345,7 +1630,7 @@
         <v>0.4699632194131663</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1910987516192786</v>
       </c>
       <c r="K16">
         <v>2396295.528180778</v>
@@ -1359,22 +1644,40 @@
       <c r="N16">
         <v>67.07476507089441</v>
       </c>
-      <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="O16">
+        <v>26682017.03573632</v>
+      </c>
+      <c r="P16">
+        <v>74.26218657117786</v>
+      </c>
+      <c r="Q16">
+        <v>28.2</v>
+      </c>
+      <c r="R16">
+        <v>29.26720783322269</v>
+      </c>
+      <c r="S16">
+        <v>16.78</v>
+      </c>
+      <c r="T16">
+        <v>17.66687707613131</v>
+      </c>
+      <c r="U16">
+        <v>0.3757168171753529</v>
+      </c>
+      <c r="V16">
+        <v>0.5086244290472892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>30.2</v>
@@ -1395,7 +1698,7 @@
         <v>0.3377172750963702</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7186515668178153</v>
       </c>
       <c r="K17">
         <v>755751.2655960069</v>
@@ -1409,22 +1712,40 @@
       <c r="N17">
         <v>63.49825606659184</v>
       </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17">
+        <v>3113918.415491693</v>
+      </c>
+      <c r="P17">
+        <v>64.93307229887235</v>
+      </c>
+      <c r="Q17">
+        <v>30.2</v>
+      </c>
+      <c r="R17">
+        <v>29.69489417899584</v>
+      </c>
+      <c r="S17">
+        <v>17.15</v>
+      </c>
+      <c r="T17">
+        <v>17.50951362371727</v>
+      </c>
+      <c r="U17">
+        <v>0.8030908488000382</v>
+      </c>
+      <c r="V17">
+        <v>0.8948571234395333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>28.2</v>
@@ -1445,7 +1766,7 @@
         <v>0.3699879098573806</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0001400767669554552</v>
       </c>
       <c r="K18">
         <v>404753.6043838384</v>
@@ -1459,22 +1780,40 @@
       <c r="N18">
         <v>60.39003192089756</v>
       </c>
-      <c r="O18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="O18">
+        <v>7809749116.301229</v>
+      </c>
+      <c r="P18">
+        <v>98.9263708264093</v>
+      </c>
+      <c r="Q18">
+        <v>28.2</v>
+      </c>
+      <c r="R18">
+        <v>29.83071992823286</v>
+      </c>
+      <c r="S18">
+        <v>20.02</v>
+      </c>
+      <c r="T18">
+        <v>17.25151765656288</v>
+      </c>
+      <c r="U18">
+        <v>0.101708985391881</v>
+      </c>
+      <c r="V18">
+        <v>0.001377230993070519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>29.2</v>
@@ -1495,7 +1834,7 @@
         <v>0.4303214169647421</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5906017391226955</v>
       </c>
       <c r="K19">
         <v>38325250.95914959</v>
@@ -1509,22 +1848,40 @@
       <c r="N19">
         <v>79.49692046033839</v>
       </c>
-      <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="O19">
+        <v>150798605.1906525</v>
+      </c>
+      <c r="P19">
+        <v>81.78397324552293</v>
+      </c>
+      <c r="Q19">
+        <v>29.2</v>
+      </c>
+      <c r="R19">
+        <v>29.82869860152323</v>
+      </c>
+      <c r="S19">
+        <v>17.87</v>
+      </c>
+      <c r="T19">
+        <v>17.40370501865235</v>
+      </c>
+      <c r="U19">
+        <v>0.7119624768146511</v>
+      </c>
+      <c r="V19">
+        <v>0.8295405423121055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>30.2</v>
@@ -1545,7 +1902,7 @@
         <v>0.4084843695689931</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6620562491881885</v>
       </c>
       <c r="K20">
         <v>805321.5020579136</v>
@@ -1559,22 +1916,40 @@
       <c r="N20">
         <v>62.94793851750248</v>
       </c>
-      <c r="O20" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="O20">
+        <v>2977823.56580581</v>
+      </c>
+      <c r="P20">
+        <v>64.73898962500481</v>
+      </c>
+      <c r="Q20">
+        <v>30.2</v>
+      </c>
+      <c r="R20">
+        <v>29.58365879252027</v>
+      </c>
+      <c r="S20">
+        <v>16.91</v>
+      </c>
+      <c r="T20">
+        <v>17.2261320153314</v>
+      </c>
+      <c r="U20">
+        <v>0.7214399144101702</v>
+      </c>
+      <c r="V20">
+        <v>0.9176873028011872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>29.2</v>
@@ -1595,7 +1970,7 @@
         <v>0.4495288174343351</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1698587085538143</v>
       </c>
       <c r="K21">
         <v>67039841.72691821</v>
@@ -1609,22 +1984,40 @@
       <c r="N21">
         <v>81.73575442520162</v>
       </c>
-      <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="O21">
+        <v>877986068.4213735</v>
+      </c>
+      <c r="P21">
+        <v>89.43487624726461</v>
+      </c>
+      <c r="Q21">
+        <v>29.2</v>
+      </c>
+      <c r="R21">
+        <v>30.26141334274737</v>
+      </c>
+      <c r="S21">
+        <v>18.69</v>
+      </c>
+      <c r="T21">
+        <v>17.72254569217048</v>
+      </c>
+      <c r="U21">
+        <v>0.3797211241326385</v>
+      </c>
+      <c r="V21">
+        <v>0.4473248859720583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>29.2</v>
@@ -1645,7 +2038,7 @@
         <v>0.4495288174343351</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3706787312442482</v>
       </c>
       <c r="K22">
         <v>58699851.82404219</v>
@@ -1659,22 +2052,40 @@
       <c r="N22">
         <v>81.15879467174294</v>
       </c>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="O22">
+        <v>352274980.3272508</v>
+      </c>
+      <c r="P22">
+        <v>85.46881799321832</v>
+      </c>
+      <c r="Q22">
+        <v>29.2</v>
+      </c>
+      <c r="R22">
+        <v>30.26141334274737</v>
+      </c>
+      <c r="S22">
+        <v>17.89</v>
+      </c>
+      <c r="T22">
+        <v>17.72254569217048</v>
+      </c>
+      <c r="U22">
+        <v>0.3797211241326385</v>
+      </c>
+      <c r="V22">
+        <v>0.9761867530834768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>30.2</v>
@@ -1695,7 +2106,7 @@
         <v>0.4250552877397811</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6107799241178704</v>
       </c>
       <c r="K23">
         <v>4611908.932742533</v>
@@ -1709,22 +2120,40 @@
       <c r="N23">
         <v>70.35435299857457</v>
       </c>
-      <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="O23">
+        <v>17764400.1054928</v>
+      </c>
+      <c r="P23">
+        <v>72.49550546175297</v>
+      </c>
+      <c r="Q23">
+        <v>30.2</v>
+      </c>
+      <c r="R23">
+        <v>29.44667499974569</v>
+      </c>
+      <c r="S23">
+        <v>17.66</v>
+      </c>
+      <c r="T23">
+        <v>17.58184482639889</v>
+      </c>
+      <c r="U23">
+        <v>0.6139949890856897</v>
+      </c>
+      <c r="V23">
+        <v>0.9947636951034292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>27.2</v>
@@ -1745,7 +2174,7 @@
         <v>0.4703401296918707</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.001245772761538797</v>
       </c>
       <c r="K24">
         <v>931256.0966864247</v>
@@ -1759,22 +2188,40 @@
       <c r="N24">
         <v>62.96657094393058</v>
       </c>
-      <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="O24">
+        <v>1589345305.539305</v>
+      </c>
+      <c r="P24">
+        <v>92.01218263474391</v>
+      </c>
+      <c r="Q24">
+        <v>27.2</v>
+      </c>
+      <c r="R24">
+        <v>29.98557935409077</v>
+      </c>
+      <c r="S24">
+        <v>17.72</v>
+      </c>
+      <c r="T24">
+        <v>17.57249039238118</v>
+      </c>
+      <c r="U24">
+        <v>0.001269290517424562</v>
+      </c>
+      <c r="V24">
+        <v>0.9814717312050171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>28.2</v>
@@ -1795,7 +2242,7 @@
         <v>0.4165728119352762</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05384564944359212</v>
       </c>
       <c r="K25">
         <v>7066190.729278963</v>
@@ -1809,22 +2256,40 @@
       <c r="N25">
         <v>72.29494433802837</v>
       </c>
-      <c r="O25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="O25">
+        <v>315024125.2896001</v>
+      </c>
+      <c r="P25">
+        <v>84.98343814357671</v>
+      </c>
+      <c r="Q25">
+        <v>28.2</v>
+      </c>
+      <c r="R25">
+        <v>30.02330884539867</v>
+      </c>
+      <c r="S25">
+        <v>18.02</v>
+      </c>
+      <c r="T25">
+        <v>17.74660433932156</v>
+      </c>
+      <c r="U25">
+        <v>0.05741844309068384</v>
+      </c>
+      <c r="V25">
+        <v>0.9377762012555962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>28.2</v>
@@ -1845,7 +2310,7 @@
         <v>0.3997359652459576</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.2073981916912739</v>
       </c>
       <c r="K26">
         <v>17350429.81103103</v>
@@ -1859,22 +2324,40 @@
       <c r="N26">
         <v>76.37537013177558</v>
       </c>
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="O26">
+        <v>209282082.2767258</v>
+      </c>
+      <c r="P26">
+        <v>83.20732047729766</v>
+      </c>
+      <c r="Q26">
+        <v>28.2</v>
+      </c>
+      <c r="R26">
+        <v>29.55165236404071</v>
+      </c>
+      <c r="S26">
+        <v>17.96</v>
+      </c>
+      <c r="T26">
+        <v>17.90264153932729</v>
+      </c>
+      <c r="U26">
+        <v>0.2079854959199706</v>
+      </c>
+      <c r="V26">
+        <v>0.9971762250723357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>28.2</v>
@@ -1895,7 +2378,7 @@
         <v>0.3232290870750321</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.2073981916912739</v>
       </c>
       <c r="K27">
         <v>8528266.57564353</v>
@@ -1909,22 +2392,40 @@
       <c r="N27">
         <v>74.21350331420749</v>
       </c>
-      <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="O27">
+        <v>127217063.2833922</v>
+      </c>
+      <c r="P27">
+        <v>81.04545365972959</v>
+      </c>
+      <c r="Q27">
+        <v>28.2</v>
+      </c>
+      <c r="R27">
+        <v>29.55165236404071</v>
+      </c>
+      <c r="S27">
+        <v>17.96</v>
+      </c>
+      <c r="T27">
+        <v>17.90264153932729</v>
+      </c>
+      <c r="U27">
+        <v>0.2079854959199706</v>
+      </c>
+      <c r="V27">
+        <v>0.9971762250723357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>29.2</v>
@@ -1945,7 +2446,7 @@
         <v>6.553718570611091E-05</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.730799590730642E-06</v>
       </c>
       <c r="K28">
         <v>781295.0317656</v>
@@ -1959,22 +2460,40 @@
       <c r="N28">
         <v>100.7632727465202</v>
       </c>
-      <c r="O28" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="O28">
+        <v>6887799408967570</v>
+      </c>
+      <c r="P28">
+        <v>158.3808049081973</v>
+      </c>
+      <c r="Q28">
+        <v>29.2</v>
+      </c>
+      <c r="R28">
+        <v>30.55851337646052</v>
+      </c>
+      <c r="S28">
+        <v>16.97</v>
+      </c>
+      <c r="T28">
+        <v>20.65645685356649</v>
+      </c>
+      <c r="U28">
+        <v>0.2046878785194302</v>
+      </c>
+      <c r="V28">
+        <v>8.455799157478414E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>30.2</v>
@@ -1995,7 +2514,7 @@
         <v>0.4845577789851628</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.2315466477020072</v>
       </c>
       <c r="K29">
         <v>21163257.44456025</v>
@@ -2009,22 +2528,40 @@
       <c r="N29">
         <v>76.40236945000839</v>
       </c>
-      <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="O29">
+        <v>188624650.1483206</v>
+      </c>
+      <c r="P29">
+        <v>82.75598447276451</v>
+      </c>
+      <c r="Q29">
+        <v>30.2</v>
+      </c>
+      <c r="R29">
+        <v>29.74356116475967</v>
+      </c>
+      <c r="S29">
+        <v>18.11</v>
+      </c>
+      <c r="T29">
+        <v>16.88779975425306</v>
+      </c>
+      <c r="U29">
+        <v>0.8360503581471924</v>
+      </c>
+      <c r="V29">
+        <v>0.2769529914623179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>30.2</v>
@@ -2045,7 +2582,7 @@
         <v>0.7890782254352866</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3.335292857899673E-20</v>
       </c>
       <c r="K30">
         <v>3279931.385293643</v>
@@ -2059,22 +2596,40 @@
       <c r="N30">
         <v>66.18744699341089</v>
       </c>
-      <c r="O30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="O30">
+        <v>1.246265939393399E+26</v>
+      </c>
+      <c r="P30">
+        <v>260.956107258604</v>
+      </c>
+      <c r="Q30">
+        <v>30.2</v>
+      </c>
+      <c r="R30">
+        <v>23.69381209705067</v>
+      </c>
+      <c r="S30">
+        <v>17.28</v>
+      </c>
+      <c r="T30">
+        <v>20.41804384730262</v>
+      </c>
+      <c r="U30">
+        <v>1.580990808772043E-16</v>
+      </c>
+      <c r="V30">
+        <v>0.0002109621915190128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>30.2</v>
@@ -2095,7 +2650,7 @@
         <v>0.004808058802489822</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.932656663794663E-12</v>
       </c>
       <c r="K31">
         <v>257483.0857177735</v>
@@ -2109,22 +2664,40 @@
       <c r="N31">
         <v>77.28778934699044</v>
       </c>
-      <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="O31">
+        <v>2.77092152392875E+19</v>
+      </c>
+      <c r="P31">
+        <v>194.4262422617656</v>
+      </c>
+      <c r="Q31">
+        <v>30.2</v>
+      </c>
+      <c r="R31">
+        <v>25.59648221286824</v>
+      </c>
+      <c r="S31">
+        <v>12.93</v>
+      </c>
+      <c r="T31">
+        <v>9.738044460270682</v>
+      </c>
+      <c r="U31">
+        <v>1.228387999945591E-08</v>
+      </c>
+      <c r="V31">
+        <v>0.0001573327534850767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D32">
         <v>28.2</v>
@@ -2145,7 +2718,7 @@
         <v>0.850748131320455</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.684570111756896E-18</v>
       </c>
       <c r="K32">
         <v>21972513.11813615</v>
@@ -2159,11 +2732,29 @@
       <c r="N32">
         <v>74.12078728593616</v>
       </c>
-      <c r="O32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" t="s">
-        <v>63</v>
+      <c r="O32">
+        <v>1.533167616666695E+25</v>
+      </c>
+      <c r="P32">
+        <v>251.8558963757717</v>
+      </c>
+      <c r="Q32">
+        <v>28.2</v>
+      </c>
+      <c r="R32">
+        <v>21.29968889837573</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2.016788781271186</v>
+      </c>
+      <c r="U32">
+        <v>1.684978270440893E-18</v>
+      </c>
+      <c r="V32">
+        <v>0.9997577662031853</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Datetime</t>
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -578,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,2112 +654,2304 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
+        <v>-1.51</v>
+      </c>
+      <c r="E2">
+        <v>-9.57</v>
+      </c>
+      <c r="F2">
         <v>28.2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>210</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>217.5990564598937</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.0005506864188517541</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-32.59095634051625</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.3507995501699038</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.0240988967296453</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1234617.411502765</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>60.9153239742151</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>3519438.411208905</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>65.46473369622757</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>146041474.4580179</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>81.64476209006179</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>28.2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>30.27672698744499</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>18.14</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>18.28756182540367</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.02455416199293763</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.981458733414593</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
+        <v>-3.2</v>
+      </c>
+      <c r="E3">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="F3">
         <v>29.2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>210</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>217.9955647240798</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.01826151712478452</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-17.38463145117577</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.3135768689473347</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.4208673558279326</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>41240838.39044689</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>76.15327485531066</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>131517476.173835</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>81.1898346614569</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>312491511.5241312</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>84.94838224725538</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>29.2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>30.18585090080835</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>17.86</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>18.04708001163068</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.4337201505725254</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.970366157238425</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4">
+        <v>-3.2</v>
+      </c>
+      <c r="E4">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="F4">
         <v>29.2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>225</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>217.9955647240798</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.006823792251033699</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-21.6597420364638</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.4106493198697091</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.4208673558279326</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>15410489.25518477</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>71.87816427002262</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>37527127.1850011</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>75.74345319130484</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>89166162.84286892</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>79.50200077710332</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>29.2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>30.18585090080835</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>17.86</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>18.04708001163068</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.4337201505725254</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.970366157238425</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
+        <v>-2.48</v>
+      </c>
+      <c r="E5">
+        <v>-4.15</v>
+      </c>
+      <c r="F5">
         <v>30.2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>225</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>218.0487165909314</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.002130322445371833</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-26.71554656820778</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.4162124406110167</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.5598107103525406</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>4815700.645830388</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>66.82659482422382</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>11570294.82050259</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>70.63344425268616</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>20668226.96767663</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>73.15303222095044</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>30.2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>29.46211627977262</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>17.6</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>17.9612697993568</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.6262676925005607</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.8938840643644401</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
+        <v>-2.69</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
         <v>29.2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>225</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>218.1574144965044</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.01368161060488187</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>-18.63862774279663</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.4276885156160934</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.5804996931345077</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>30989683.2535609</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>74.91217137325644</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>72458534.94316928</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>78.60089548680996</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>124820970.2780668</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>80.96287554184397</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>29.2</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>29.94119474482136</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>17.87</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>18.15878370549187</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.6236371281707921</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.9308292706003376</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7">
+        <v>-2.46</v>
+      </c>
+      <c r="E7">
+        <v>-3.45</v>
+      </c>
+      <c r="F7">
         <v>30.2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>225</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>218.2604549755536</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.002652445212514238</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-25.76353577887877</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.438685645030669</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.5987897429788055</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>6019309.117927583</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>67.79546646824214</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>13721235.66410924</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>71.37393223465469</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>22914947.73415802</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>73.60118871015995</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>30.2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>29.42765049969539</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>18.2</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>18.18775330902537</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.5988669379241035</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.9998710983351902</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8">
+        <v>-4.4</v>
+      </c>
+      <c r="E8">
+        <v>-10.41</v>
+      </c>
+      <c r="F8">
         <v>29.2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>225</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>218.6521805483398</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.005515952056137275</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-22.58379517305019</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.481440974260076</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.257704441908068</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>12607696.15599591</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>71.00635733825334</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>26187418.25074737</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>74.18092684575583</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>101618032.1024087</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>80.06970780267838</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>29.2</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>30.45142700943828</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>18.1</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>18.20729852009052</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.2602672076775339</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.9901533282185856</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9">
+        <v>-3.96</v>
+      </c>
+      <c r="E9">
+        <v>-9.24</v>
+      </c>
+      <c r="F9">
         <v>29.2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>225</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>218.4955961258881</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.0009194107598655806</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-30.36490418006958</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.4641818820139618</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.1860022232885806</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2095464.626874973</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>63.21280333992259</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>4514318.003501794</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>66.54592148960081</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>24270236.79441656</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>73.85074013579845</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>29.2</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>30.28097514265765</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>17.3</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>18.18793384184438</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.3662865962445496</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.5078051591175263</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10">
+        <v>-3.84</v>
+      </c>
+      <c r="E10">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="F10">
         <v>30.2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>225</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>218.4499405630944</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.003856782352577732</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-24.13774868715375</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.4591902031795372</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.895236518752482</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>8782797.201148495</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>69.43632854807352</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>19126708.58466582</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>72.8164024098898</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>21364978.0633603</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>73.29702451238566</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>30.2</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>30.23256519040821</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>17.89</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>18.2473463073442</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.9990889161900465</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.8960528980407489</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
+        <v>-4.66</v>
+      </c>
+      <c r="E11">
+        <v>-5.98</v>
+      </c>
+      <c r="F11">
         <v>28.2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>225</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>219.1315941176016</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.002226654528092346</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-26.52347159787627</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.5354064896913701</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.133575840432782</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>5134200.594268009</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>67.10472832641197</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>9589350.695445567</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>69.81789201651191</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>71789559.13267206</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>78.56061286292625</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>28.2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>29.7234862544702</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>18</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>18.14536868427597</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.1360241632404523</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.982000824343669</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12">
+        <v>-5.54</v>
+      </c>
+      <c r="E12">
+        <v>-5.54</v>
+      </c>
+      <c r="F12">
         <v>28.2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>225</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>219.5983145784009</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.0002893371629830771</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>-35.38595781208801</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.589011336541935</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.07239397304789182</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>672853.0557310059</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>58.27920229078114</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1142343.133294009</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>60.57796575462105</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>15779533.64347469</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>71.98094163698596</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>28.2</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>29.67968553047092</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>17.18</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>18.11023953365923</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.1523061937191856</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.4753186412193333</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13">
+        <v>-0.74</v>
+      </c>
+      <c r="E13">
+        <v>-7.1</v>
+      </c>
+      <c r="F13">
         <v>30.2</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>210</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>216.1374785966352</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.003061472570630653</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>-25.14069627287244</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.5049320557646849</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.6125380933390212</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>6681141.901730145</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>68.24850695894385</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>13231764.20560587</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>71.2161775300679</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>21601536.86683857</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>73.34484650643685</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>30.2</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>29.90601688940651</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>18.01</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>17.31441647652212</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.9284082298494398</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.6597723648339013</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14">
+        <v>-2.15</v>
+      </c>
+      <c r="E14">
+        <v>-6.83</v>
+      </c>
+      <c r="F14">
         <v>27.2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>210</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>216.9723059971573</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.0002232047439632516</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>-36.51296579200552</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.4140082389919561</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.002336183282694769</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>494675.771408966</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>56.94320639692923</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>1194845.234513744</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>60.77311655786663</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>511451838.2887748</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>87.0880474391288</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>27.2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>29.82056906759966</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>17.85</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>17.42304573538777</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.002732447845413723</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.8549781788574428</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15">
+        <v>-2.81</v>
+      </c>
+      <c r="E15">
+        <v>-2.13</v>
+      </c>
+      <c r="F15">
         <v>28.2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>225</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>218.287356678762</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.007685282955573854</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>-21.14340138081982</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.4415750196521217</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.4778443140918441</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>17449146.51868437</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>72.41774189387425</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>39515701.16541246</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>75.96769692451832</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>82695765.12700188</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>79.17483269781491</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>28.2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>29.09746022561623</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>17.9</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>17.66817054199732</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.5004356644552511</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.9548566339931053</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16">
+        <v>-3.45</v>
+      </c>
+      <c r="E16">
+        <v>-3.22</v>
+      </c>
+      <c r="F16">
         <v>28.2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>225</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>218.5482611630331</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.001050390911728557</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>-29.78649044537782</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.4699632194131663</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.1910987516192786</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>2396295.528180778</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>63.79540377299723</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>5098900.146213537</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>67.07476507089441</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>26682017.03573632</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>74.26218657117786</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>28.2</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>29.26720783322269</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>16.78</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>17.66687707613131</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.3757168171753529</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.5086244290472892</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17">
+        <v>-2.9</v>
+      </c>
+      <c r="E17">
+        <v>-5.84</v>
+      </c>
+      <c r="F17">
         <v>30.2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>225</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>217.2643207052934</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.0003391760943835964</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-34.69574765033112</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.3377172750963702</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.7186515668178153</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>755751.2655960069</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>58.78378883128587</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>2237822.348235954</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>63.49825606659184</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>3113918.415491693</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>64.93307229887235</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>30.2</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>29.69489417899584</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>17.15</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>17.50951362371727</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.8030908488000382</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.8948571234395333</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18">
+        <v>-3.67</v>
+      </c>
+      <c r="E18">
+        <v>-6.64</v>
+      </c>
+      <c r="F18">
         <v>28.2</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>210</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>217.4033747619164</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.0001811864013893803</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>-37.41874400606075</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.3699879098573806</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.0001400767669554552</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>404753.6043838384</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>56.07190724891851</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>1093964.4069447</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>60.39003192089756</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>7809749116.301229</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>98.9263708264093</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>28.2</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>29.83071992823286</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>20.02</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>17.25151765656288</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.101708985391881</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.001377230993070519</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19">
+        <v>-2.1</v>
+      </c>
+      <c r="E19">
+        <v>-6.41</v>
+      </c>
+      <c r="F19">
         <v>29.2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>210</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>216.8178193441794</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.01734223706628407</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>-17.60894881318993</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.4303214169647421</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.5906017391226955</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>38325250.95914959</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>75.83485007357255</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>89061918.48287609</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>79.49692046033839</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>150798605.1906525</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>81.78397324552293</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>29.2</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>29.82869860152323</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>17.87</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>17.40370501865235</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0.7119624768146511</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.8295405423121055</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20">
+        <v>-4.96</v>
+      </c>
+      <c r="E20">
+        <v>-3.82</v>
+      </c>
+      <c r="F20">
         <v>30.2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>225</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>217.9747952153889</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.0003567337355702815</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-34.47655818390186</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.4084843695689931</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.6620562491881885</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>805321.5020579136</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>59.05969294895775</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>1971486.700721591</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>62.94793851750248</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>2977823.56580581</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>64.73898962500481</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>30.2</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>29.58365879252027</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>16.91</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>17.2261320153314</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>0.7214399144101702</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.9176873028011872</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21">
+        <v>-2.23</v>
+      </c>
+      <c r="E21">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="F21">
         <v>29.2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>210</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>216.6389371783326</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.03043595370136015</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-15.16613085212145</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.4495288174343351</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.1698587085538143</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>67039841.72691821</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>78.26332980305884</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>149133579.7102953</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>81.73575442520162</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>877986068.4213735</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>89.43487624726461</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>29.2</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>30.26141334274737</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>18.69</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>17.72254569217048</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>0.3797211241326385</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.4473248859720583</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22">
+        <v>-2.23</v>
+      </c>
+      <c r="E22">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="F22">
         <v>29.2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>210</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>216.6389371783326</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.02664961501058988</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>-15.74309060558013</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.4495288174343351</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.3706787312442482</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>58699851.82404219</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>77.68637004960016</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>130580842.7567978</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>81.15879467174294</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>352274980.3272508</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>85.46881799321832</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>29.2</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>30.26141334274737</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>17.89</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>17.72254569217048</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>0.3797211241326385</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.9761867530834768</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
+        <v>-1.82</v>
+      </c>
+      <c r="E23">
+        <v>-4.43</v>
+      </c>
+      <c r="F23">
         <v>30.2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>210</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>216.867417537784</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.002084987672006293</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-26.80896508553758</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.4250552877397811</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.6107799241178704</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>4611908.932742533</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>66.63880723081058</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>10850138.94843238</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>70.35435299857457</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>17764400.1054928</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>72.49550546175297</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>30.2</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>29.44667499974569</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>17.66</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>17.58184482639889</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.6139949890856897</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.9947636951034292</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24">
+        <v>-0.84</v>
+      </c>
+      <c r="E24">
+        <v>-7.58</v>
+      </c>
+      <c r="F24">
         <v>27.2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>210</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>216.4483130751718</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.0004242797529547144</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>-33.7234769269685</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.4703401296918707</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.001245772761538797</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>931256.0966864247</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>59.69069128976328</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>1979963.090320423</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>62.96657094393058</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1589345305.539305</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>92.01218263474391</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>27.2</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>29.98557935409077</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>17.72</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>17.57249039238118</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>0.001269290517424562</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.9814717312050171</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25">
+        <v>-0.91</v>
+      </c>
+      <c r="E25">
+        <v>-8.52</v>
+      </c>
+      <c r="F25">
         <v>28.2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>210</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>216.9478509286165</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.003189803616338902</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-24.96236053922672</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.4165728119352762</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.05384564944359212</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>7066190.729278963</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>68.49185355651258</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>16962678.61661805</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>72.29494433802837</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>315024125.2896001</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>84.98343814357671</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>28.2</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>30.02330884539867</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>18.02</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>17.74660433932156</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>0.05741844309068384</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.9377762012555962</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26">
+        <v>-1.58</v>
+      </c>
+      <c r="E26">
+        <v>-4.78</v>
+      </c>
+      <c r="F26">
         <v>28.2</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>210</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>217.1096361298436</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.007808971536471175</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>-21.07406160162014</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.3997359652459576</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.2073981916912739</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>17350429.81103103</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>72.3931023775784</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>43404725.41757735</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>76.37537013177558</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>209282082.2767258</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>83.20732047729766</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>28.2</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>29.55165236404071</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>17.96</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>17.90264153932729</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>0.2079854959199706</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.9971762250723357</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27">
+        <v>-1.58</v>
+      </c>
+      <c r="E27">
+        <v>-4.78</v>
+      </c>
+      <c r="F27">
         <v>28.2</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>225</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>217.1096361298436</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.00383834819482673</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-24.15855630894772</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.3232290870750321</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.2073981916912739</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>8528266.57564353</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>69.30860767025084</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>26384588.8772499</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>74.21350331420749</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>127217063.2833922</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>81.04545365972959</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>28.2</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>29.55165236404071</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>17.96</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>17.90264153932729</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>0.2079854959199706</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.9971762250723357</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28">
+        <v>216.8</v>
+      </c>
+      <c r="E28">
+        <v>-5.3</v>
+      </c>
+      <c r="F28">
         <v>29.2</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>225</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>201.9562759374467</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.0004696622428506757</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>-33.28214352273022</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>6.553718570611091E-05</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>1.730799590730642E-06</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>781295.0317656</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>58.92815062651258</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>11921400398.07583</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>100.7632727465202</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>6887799408967570</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>158.3808049081973</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>29.2</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>30.55851337646052</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>16.97</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>20.65645685356649</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>0.2046878785194302</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>8.455799157478414E-06</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29">
+        <v>-2.61</v>
+      </c>
+      <c r="E29">
+        <v>-5.66</v>
+      </c>
+      <c r="F29">
         <v>30.2</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>210</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>216.3197379549275</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.009664912406747448</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>-20.14802077635285</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.4845577789851628</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.2315466477020072</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>21163257.44456025</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>73.25582515032222</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>43675405.41580754</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>76.40236945000839</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>188624650.1483206</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>82.75598447276451</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>30.2</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>29.74356116475967</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>18.11</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>16.88779975425306</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>0.8360503581471924</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.2769529914623179</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30">
+        <v>216.8</v>
+      </c>
+      <c r="E30">
+        <v>216.8</v>
+      </c>
+      <c r="F30">
         <v>30.2</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>210</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>206.3863382535253</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.001807760844353601</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>-27.42859024550659</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.7890782254352866</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>3.335292857899673E-20</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>3279931.385293643</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>65.15864758559229</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>4156661.88670243</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>66.18744699341089</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>1.246265939393399E+26</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>260.956107258604</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>30.2</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>23.69381209705067</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>17.28</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>20.41804384730262</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>1.580990808772043E-16</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.0002109621915190128</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31">
+        <v>-1.67</v>
+      </c>
+      <c r="E31">
+        <v>24.15</v>
+      </c>
+      <c r="F31">
         <v>30.2</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>195</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>212.153063416613</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.0001271017342331423</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-38.95848523696615</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.004808058802489822</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>1.932656663794663E-12</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>257483.0857177735</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>54.10748705141457</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>53552399.48072962</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>77.28778934699044</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>2.77092152392875E+19</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>194.4262422617656</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>30.2</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>25.59648221286824</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>12.93</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>9.738044460270682</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>1.228387999945591E-08</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.0001573327534850767</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32">
+        <v>-3.75</v>
+      </c>
+      <c r="E32">
+        <v>103.54</v>
+      </c>
+      <c r="F32">
         <v>28.2</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>210</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>212.9850224138894</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.01067784166378188</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-19.71516523359703</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.850748131320455</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>1.684570111756896E-18</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>21972513.11813615</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>73.41879732428924</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>25827283.43350267</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>74.12078728593616</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1.533167616666695E+25</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>251.8558963757717</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>28.2</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>21.29968889837573</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>2</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>2.016788781271186</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>1.684978270440893E-18</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>0.9997577662031853</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,16 +55,22 @@
     <t>C_initial [dB]</t>
   </si>
   <si>
-    <t>C_after</t>
-  </si>
-  <si>
-    <t>C_after [dB]</t>
-  </si>
-  <si>
-    <t>C_after_wb</t>
-  </si>
-  <si>
-    <t>C_after_wb [dB]</t>
+    <t>C_after Wr</t>
+  </si>
+  <si>
+    <t>C_after Wr [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb Only</t>
+  </si>
+  <si>
+    <t>C_after Wb Only [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb</t>
+  </si>
+  <si>
+    <t>C_after Wb [dB]</t>
   </si>
   <si>
     <t>Theta X bar</t>
@@ -584,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,16 +666,22 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>-1.51</v>
@@ -711,39 +723,45 @@
         <v>65.46473369622757</v>
       </c>
       <c r="Q2">
+        <v>51231283.54602216</v>
+      </c>
+      <c r="R2">
+        <v>77.0953523680493</v>
+      </c>
+      <c r="S2">
         <v>146041474.4580179</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>81.64476209006179</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>28.2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>30.27672698744499</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>18.14</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>18.28756182540367</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.02455416199293763</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.981458733414593</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>-3.2</v>
@@ -785,39 +803,45 @@
         <v>81.1898346614569</v>
       </c>
       <c r="Q3">
+        <v>97990109.75635704</v>
+      </c>
+      <c r="R3">
+        <v>79.91182244110914</v>
+      </c>
+      <c r="S3">
         <v>312491511.5241312</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>84.94838224725538</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>29.2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>30.18585090080835</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>17.86</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>18.04708001163068</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.4337201505725254</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.970366157238425</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>-3.2</v>
@@ -859,39 +883,45 @@
         <v>75.74345319130484</v>
       </c>
       <c r="Q4">
+        <v>36616024.12681586</v>
+      </c>
+      <c r="R4">
+        <v>75.6367118558211</v>
+      </c>
+      <c r="S4">
         <v>89166162.84286892</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>79.50200077710332</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>29.2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>30.18585090080835</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>17.86</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>18.04708001163068</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.4337201505725254</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.970366157238425</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>-2.48</v>
@@ -933,39 +963,45 @@
         <v>70.63344425268616</v>
       </c>
       <c r="Q5">
+        <v>8602373.189319123</v>
+      </c>
+      <c r="R5">
+        <v>69.34618279248808</v>
+      </c>
+      <c r="S5">
         <v>20668226.96767663</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>73.15303222095044</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>30.2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>29.46211627977262</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>17.6</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>17.9612697993568</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.6262676925005607</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.8938840643644401</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>-2.69</v>
@@ -1007,39 +1043,45 @@
         <v>78.60089548680996</v>
       </c>
       <c r="Q6">
+        <v>53384495.4959869</v>
+      </c>
+      <c r="R6">
+        <v>77.27415142829045</v>
+      </c>
+      <c r="S6">
         <v>124820970.2780668</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>80.96287554184397</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>29.2</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>29.94119474482136</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>17.87</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>18.15878370549187</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.6236371281707921</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.9308292706003376</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>-2.46</v>
@@ -1081,39 +1123,45 @@
         <v>71.37393223465469</v>
       </c>
       <c r="Q7">
+        <v>10052458.62760318</v>
+      </c>
+      <c r="R7">
+        <v>70.02272294374738</v>
+      </c>
+      <c r="S7">
         <v>22914947.73415802</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>73.60118871015995</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>30.2</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>29.42765049969539</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>18.2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>18.18775330902537</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.5988669379241035</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.9998710983351902</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>-4.4</v>
@@ -1155,39 +1203,45 @@
         <v>74.18092684575583</v>
       </c>
       <c r="Q8">
+        <v>48923084.37777532</v>
+      </c>
+      <c r="R8">
+        <v>76.8951382951759</v>
+      </c>
+      <c r="S8">
         <v>101618032.1024087</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>80.06970780267838</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>29.2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>30.45142700943828</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>18.1</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>18.20729852009052</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.2602672076775339</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.9901533282185856</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>-3.96</v>
@@ -1229,39 +1283,45 @@
         <v>66.54592148960081</v>
       </c>
       <c r="Q9">
+        <v>11265804.19215678</v>
+      </c>
+      <c r="R9">
+        <v>70.51762198612022</v>
+      </c>
+      <c r="S9">
         <v>24270236.79441656</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>73.85074013579845</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>29.2</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>30.28097514265765</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>17.3</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>18.18793384184438</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.3662865962445496</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.5078051591175263</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>-3.84</v>
@@ -1303,39 +1363,45 @@
         <v>72.8164024098898</v>
       </c>
       <c r="Q10">
+        <v>9810588.617840771</v>
+      </c>
+      <c r="R10">
+        <v>69.91695065056938</v>
+      </c>
+      <c r="S10">
         <v>21364978.0633603</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>73.29702451238566</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>30.2</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>30.23256519040821</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>17.89</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>18.2473463073442</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.9990889161900465</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.8960528980407489</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>-4.66</v>
@@ -1377,39 +1443,45 @@
         <v>69.81789201651191</v>
       </c>
       <c r="Q11">
+        <v>38436595.85171498</v>
+      </c>
+      <c r="R11">
+        <v>75.84744917282632</v>
+      </c>
+      <c r="S11">
         <v>71789559.13267206</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>78.56061286292625</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>28.2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>29.7234862544702</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>18</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>18.14536868427597</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.1360241632404523</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.982000824343669</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>-5.54</v>
@@ -1451,39 +1523,45 @@
         <v>60.57796575462105</v>
       </c>
       <c r="Q12">
+        <v>9294324.201351454</v>
+      </c>
+      <c r="R12">
+        <v>69.68217817314604</v>
+      </c>
+      <c r="S12">
         <v>15779533.64347469</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>71.98094163698596</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>28.2</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>29.67968553047092</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>17.18</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>18.11023953365923</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.1523061937191856</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.4753186412193333</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>-0.74</v>
@@ -1525,39 +1603,45 @@
         <v>71.2161775300679</v>
       </c>
       <c r="Q13">
+        <v>10907308.41784943</v>
+      </c>
+      <c r="R13">
+        <v>70.37717593531282</v>
+      </c>
+      <c r="S13">
         <v>21601536.86683857</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>73.34484650643685</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>30.2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>29.90601688940651</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>18.01</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>17.31441647652212</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.9284082298494398</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0.6597723648339013</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>-2.15</v>
@@ -1599,39 +1683,45 @@
         <v>60.77311655786663</v>
       </c>
       <c r="Q14">
+        <v>211745274.8991344</v>
+      </c>
+      <c r="R14">
+        <v>83.2581372781914</v>
+      </c>
+      <c r="S14">
         <v>511451838.2887748</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>87.0880474391288</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>27.2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>29.82056906759966</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>17.85</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>17.42304573538777</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>0.002732447845413723</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0.8549781788574428</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>-2.81</v>
@@ -1673,39 +1763,45 @@
         <v>75.96769692451832</v>
       </c>
       <c r="Q15">
+        <v>36516384.1111031</v>
+      </c>
+      <c r="R15">
+        <v>75.62487766717085</v>
+      </c>
+      <c r="S15">
         <v>82695765.12700188</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>79.17483269781491</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>28.2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>29.09746022561623</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>17.9</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>17.66817054199732</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>0.5004356644552511</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.9548566339931053</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>-3.45</v>
@@ -1747,39 +1843,45 @@
         <v>67.07476507089441</v>
       </c>
       <c r="Q16">
+        <v>12539566.62655159</v>
+      </c>
+      <c r="R16">
+        <v>70.98282527328067</v>
+      </c>
+      <c r="S16">
         <v>26682017.03573632</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>74.26218657117786</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>28.2</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>29.26720783322269</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>16.78</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>17.66687707613131</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>0.3757168171753529</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.5086244290472892</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>-2.9</v>
@@ -1821,39 +1923,45 @@
         <v>63.49825606659184</v>
       </c>
       <c r="Q17">
+        <v>1051624.042152261</v>
+      </c>
+      <c r="R17">
+        <v>60.21860506356638</v>
+      </c>
+      <c r="S17">
         <v>3113918.415491693</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>64.93307229887235</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>30.2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>29.69489417899584</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>17.15</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>17.50951362371727</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>0.8030908488000382</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>0.8948571234395333</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>-3.67</v>
@@ -1895,39 +2003,45 @@
         <v>60.39003192089756</v>
       </c>
       <c r="Q18">
+        <v>2889512752.050817</v>
+      </c>
+      <c r="R18">
+        <v>94.60824615443025</v>
+      </c>
+      <c r="S18">
         <v>7809749116.301229</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>98.9263708264093</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>28.2</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>29.83071992823286</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>20.02</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>17.25151765656288</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>0.101708985391881</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>0.001377230993070519</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>-2.1</v>
@@ -1969,39 +2083,45 @@
         <v>79.49692046033839</v>
       </c>
       <c r="Q19">
+        <v>64891869.46194828</v>
+      </c>
+      <c r="R19">
+        <v>78.1219028587571</v>
+      </c>
+      <c r="S19">
         <v>150798605.1906525</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>81.78397324552293</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>29.2</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>29.82869860152323</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>17.87</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>17.40370501865235</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>0.7119624768146511</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>0.8295405423121055</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>-4.96</v>
@@ -2043,39 +2163,45 @@
         <v>62.94793851750248</v>
       </c>
       <c r="Q20">
+        <v>1216394.381965877</v>
+      </c>
+      <c r="R20">
+        <v>60.85074405646007</v>
+      </c>
+      <c r="S20">
         <v>2977823.56580581</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>64.73898962500481</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>30.2</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>29.58365879252027</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>16.91</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>17.2261320153314</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>0.7214399144101702</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>0.9176873028011872</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>-2.23</v>
@@ -2117,39 +2243,45 @@
         <v>81.73575442520162</v>
       </c>
       <c r="Q21">
+        <v>394680039.0612812</v>
+      </c>
+      <c r="R21">
+        <v>85.96245162512184</v>
+      </c>
+      <c r="S21">
         <v>877986068.4213735</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>89.43487624726461</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>29.2</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>30.26141334274737</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>18.69</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>17.72254569217048</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>0.3797211241326385</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>0.4473248859720583</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>-2.23</v>
@@ -2191,39 +2323,45 @@
         <v>81.15879467174294</v>
       </c>
       <c r="Q22">
+        <v>158357755.3182127</v>
+      </c>
+      <c r="R22">
+        <v>81.99639337107554</v>
+      </c>
+      <c r="S22">
         <v>352274980.3272508</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>85.46881799321832</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>29.2</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>30.26141334274737</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>17.89</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>17.72254569217048</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>0.3797211241326385</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>0.9761867530834768</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>-1.82</v>
@@ -2265,39 +2403,45 @@
         <v>70.35435299857457</v>
       </c>
       <c r="Q23">
+        <v>7550852.198364842</v>
+      </c>
+      <c r="R23">
+        <v>68.77995969398897</v>
+      </c>
+      <c r="S23">
         <v>17764400.1054928</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>72.49550546175297</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>30.2</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>29.44667499974569</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>17.66</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>17.58184482639889</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>0.6139949890856897</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>0.9947636951034292</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>-0.84</v>
@@ -2339,39 +2483,45 @@
         <v>62.96657094393058</v>
       </c>
       <c r="Q24">
+        <v>747532877.1325225</v>
+      </c>
+      <c r="R24">
+        <v>88.73630298057662</v>
+      </c>
+      <c r="S24">
         <v>1589345305.539305</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>92.01218263474391</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>27.2</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>29.98557935409077</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>17.72</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>17.57249039238118</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>0.001269290517424562</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>0.9814717312050171</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>-0.91</v>
@@ -2413,39 +2563,45 @@
         <v>72.29494433802837</v>
       </c>
       <c r="Q25">
+        <v>131230485.6993395</v>
+      </c>
+      <c r="R25">
+        <v>81.18034736206093</v>
+      </c>
+      <c r="S25">
         <v>315024125.2896001</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>84.98343814357671</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>28.2</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>30.02330884539867</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>18.02</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>17.74660433932156</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>0.05741844309068384</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>0.9377762012555962</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>-1.58</v>
@@ -2487,39 +2643,45 @@
         <v>76.37537013177558</v>
       </c>
       <c r="Q26">
+        <v>83657575.1675709</v>
+      </c>
+      <c r="R26">
+        <v>79.2250527231005</v>
+      </c>
+      <c r="S26">
         <v>209282082.2767258</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>83.20732047729766</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>28.2</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>29.55165236404071</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>17.96</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>17.90264153932729</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>0.2079854959199706</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>0.9971762250723357</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>-1.58</v>
@@ -2561,39 +2723,45 @@
         <v>74.21350331420749</v>
       </c>
       <c r="Q27">
+        <v>41120255.22545744</v>
+      </c>
+      <c r="R27">
+        <v>76.14055801577292</v>
+      </c>
+      <c r="S27">
         <v>127217063.2833922</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>81.04545365972959</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>28.2</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>29.55165236404071</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>17.96</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>17.90264153932729</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>0.2079854959199706</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>0.9971762250723357</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>216.8</v>
@@ -2635,39 +2803,45 @@
         <v>100.7632727465202</v>
       </c>
       <c r="Q28">
+        <v>451406988971.9485</v>
+      </c>
+      <c r="R28">
+        <v>116.5456827881896</v>
+      </c>
+      <c r="S28">
         <v>6887799408967570</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>158.3808049081973</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>29.2</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>30.55851337646052</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>16.97</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>20.65645685356649</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>0.2046878785194302</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>8.455799157478414E-06</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>-2.61</v>
@@ -2709,39 +2883,45 @@
         <v>76.40236945000839</v>
       </c>
       <c r="Q29">
+        <v>91399541.53772357</v>
+      </c>
+      <c r="R29">
+        <v>79.60944017307834</v>
+      </c>
+      <c r="S29">
         <v>188624650.1483206</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>82.75598447276451</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>30.2</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>29.74356116475967</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>18.11</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>16.88779975425306</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>0.8360503581471924</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>0.2769529914623179</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>216.8</v>
@@ -2783,39 +2963,45 @@
         <v>66.18744699341089</v>
       </c>
       <c r="Q30">
+        <v>9.834013158769834E+25</v>
+      </c>
+      <c r="R30">
+        <v>259.9273078507854</v>
+      </c>
+      <c r="S30">
         <v>1.246265939393399E+26</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>260.956107258604</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>30.2</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>23.69381209705067</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>17.28</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>20.41804384730262</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>1.580990808772043E-16</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>0.0002109621915190128</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>-1.67</v>
@@ -2857,39 +3043,45 @@
         <v>77.28778934699044</v>
       </c>
       <c r="Q31">
+        <v>1.332275362413414E+17</v>
+      </c>
+      <c r="R31">
+        <v>171.2459399661897</v>
+      </c>
+      <c r="S31">
         <v>2.77092152392875E+19</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>194.4262422617656</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>30.2</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>25.59648221286824</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>12.93</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>9.738044460270682</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>1.228387999945591E-08</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>0.0001573327534850767</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>-3.75</v>
@@ -2931,27 +3123,33 @@
         <v>74.12078728593616</v>
       </c>
       <c r="Q32">
+        <v>1.304339484880226E+25</v>
+      </c>
+      <c r="R32">
+        <v>251.1539064141248</v>
+      </c>
+      <c r="S32">
         <v>1.533167616666695E+25</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>251.8558963757717</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>28.2</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>21.29968889837573</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>2</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>2.016788781271186</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>1.684978270440893E-18</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>0.9997577662031853</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Datetime</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Wb y</t>
+  </si>
+  <si>
+    <t>Exp Constant</t>
+  </si>
+  <si>
+    <t>Exp Constant [dB]</t>
   </si>
   <si>
     <t>2022-05-08  08:39:53</t>
@@ -590,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,16 +678,22 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>-1.51</v>
@@ -752,16 +764,22 @@
       <c r="Z2">
         <v>0.981458733414593</v>
       </c>
+      <c r="AA2">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB2">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>-3.2</v>
@@ -832,16 +850,22 @@
       <c r="Z3">
         <v>0.970366157238425</v>
       </c>
+      <c r="AA3">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB3">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>-3.2</v>
@@ -912,16 +936,22 @@
       <c r="Z4">
         <v>0.970366157238425</v>
       </c>
+      <c r="AA4">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB4">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>-2.48</v>
@@ -992,16 +1022,22 @@
       <c r="Z5">
         <v>0.8938840643644401</v>
       </c>
+      <c r="AA5">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB5">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>-2.69</v>
@@ -1072,16 +1108,22 @@
       <c r="Z6">
         <v>0.9308292706003376</v>
       </c>
+      <c r="AA6">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB6">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>-2.46</v>
@@ -1152,16 +1194,22 @@
       <c r="Z7">
         <v>0.9998710983351902</v>
       </c>
+      <c r="AA7">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB7">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>-4.4</v>
@@ -1232,16 +1280,22 @@
       <c r="Z8">
         <v>0.9901533282185856</v>
       </c>
+      <c r="AA8">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB8">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>-3.96</v>
@@ -1312,16 +1366,22 @@
       <c r="Z9">
         <v>0.5078051591175263</v>
       </c>
+      <c r="AA9">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB9">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>-3.84</v>
@@ -1392,16 +1452,22 @@
       <c r="Z10">
         <v>0.8960528980407489</v>
       </c>
+      <c r="AA10">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB10">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>-4.66</v>
@@ -1472,16 +1538,22 @@
       <c r="Z11">
         <v>0.982000824343669</v>
       </c>
+      <c r="AA11">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB11">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>-5.54</v>
@@ -1552,16 +1624,22 @@
       <c r="Z12">
         <v>0.4753186412193333</v>
       </c>
+      <c r="AA12">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB12">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>-0.74</v>
@@ -1632,16 +1710,22 @@
       <c r="Z13">
         <v>0.6597723648339013</v>
       </c>
+      <c r="AA13">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB13">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>-2.15</v>
@@ -1712,16 +1796,22 @@
       <c r="Z14">
         <v>0.8549781788574428</v>
       </c>
+      <c r="AA14">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB14">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>-2.81</v>
@@ -1792,16 +1882,22 @@
       <c r="Z15">
         <v>0.9548566339931053</v>
       </c>
+      <c r="AA15">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB15">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>-3.45</v>
@@ -1872,16 +1968,22 @@
       <c r="Z16">
         <v>0.5086244290472892</v>
       </c>
+      <c r="AA16">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB16">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>-2.9</v>
@@ -1952,16 +2054,22 @@
       <c r="Z17">
         <v>0.8948571234395333</v>
       </c>
+      <c r="AA17">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB17">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>-3.67</v>
@@ -2032,16 +2140,22 @@
       <c r="Z18">
         <v>0.001377230993070519</v>
       </c>
+      <c r="AA18">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB18">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>-2.1</v>
@@ -2112,16 +2226,22 @@
       <c r="Z19">
         <v>0.8295405423121055</v>
       </c>
+      <c r="AA19">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB19">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>-4.96</v>
@@ -2192,16 +2312,22 @@
       <c r="Z20">
         <v>0.9176873028011872</v>
       </c>
+      <c r="AA20">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB20">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>-2.23</v>
@@ -2272,16 +2398,22 @@
       <c r="Z21">
         <v>0.4473248859720583</v>
       </c>
+      <c r="AA21">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB21">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>-2.23</v>
@@ -2352,16 +2484,22 @@
       <c r="Z22">
         <v>0.9761867530834768</v>
       </c>
+      <c r="AA22">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB22">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>-1.82</v>
@@ -2432,16 +2570,22 @@
       <c r="Z23">
         <v>0.9947636951034292</v>
       </c>
+      <c r="AA23">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB23">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>-0.84</v>
@@ -2512,16 +2656,22 @@
       <c r="Z24">
         <v>0.9814717312050171</v>
       </c>
+      <c r="AA24">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB24">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>-0.91</v>
@@ -2592,16 +2742,22 @@
       <c r="Z25">
         <v>0.9377762012555962</v>
       </c>
+      <c r="AA25">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB25">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>-1.58</v>
@@ -2672,16 +2828,22 @@
       <c r="Z26">
         <v>0.9971762250723357</v>
       </c>
+      <c r="AA26">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB26">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>-1.58</v>
@@ -2752,16 +2914,22 @@
       <c r="Z27">
         <v>0.9971762250723357</v>
       </c>
+      <c r="AA27">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB27">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28">
         <v>216.8</v>
@@ -2832,16 +3000,22 @@
       <c r="Z28">
         <v>8.455799157478414E-06</v>
       </c>
+      <c r="AA28">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB28">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>-2.61</v>
@@ -2912,16 +3086,22 @@
       <c r="Z29">
         <v>0.2769529914623179</v>
       </c>
+      <c r="AA29">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB29">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>216.8</v>
@@ -2992,16 +3172,22 @@
       <c r="Z30">
         <v>0.0002109621915190128</v>
       </c>
+      <c r="AA30">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB30">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31">
         <v>-1.67</v>
@@ -3072,16 +3258,22 @@
       <c r="Z31">
         <v>0.0001573327534850767</v>
       </c>
+      <c r="AA31">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB31">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <v>-3.75</v>
@@ -3151,6 +3343,12 @@
       </c>
       <c r="Z32">
         <v>0.9997577662031853</v>
+      </c>
+      <c r="AA32">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB32">
+        <v>85.85743731821252</v>
       </c>
     </row>
   </sheetData>
